--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4DBC36-8656-4D70-8791-8A2230582D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB4A46-28BD-4533-A79D-0D88B4AA6EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="4" activeTab="8" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
     <sheet name="choose node" sheetId="2" r:id="rId2"/>
     <sheet name="Copy file" sheetId="3" r:id="rId3"/>
     <sheet name="command line" sheetId="8" r:id="rId4"/>
-    <sheet name="User scheduled task" sheetId="11" r:id="rId5"/>
-    <sheet name="Password secret key" sheetId="5" r:id="rId6"/>
-    <sheet name="Miscellaneous commands" sheetId="4" r:id="rId7"/>
-    <sheet name="windows gui out" sheetId="9" r:id="rId8"/>
-    <sheet name="Script on node" sheetId="7" r:id="rId9"/>
-    <sheet name="Master high availability" sheetId="12" r:id="rId10"/>
+    <sheet name="independent command line" sheetId="13" r:id="rId5"/>
+    <sheet name="User scheduled task" sheetId="11" r:id="rId6"/>
+    <sheet name="Password secret key" sheetId="5" r:id="rId7"/>
+    <sheet name="Miscellaneous commands" sheetId="4" r:id="rId8"/>
+    <sheet name="windows gui out" sheetId="9" r:id="rId9"/>
+    <sheet name="Script on node" sheetId="7" r:id="rId10"/>
+    <sheet name="Master high availability" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="249">
   <si>
     <t>k-console.ps1</t>
   </si>
@@ -1335,6 +1336,161 @@
   </si>
   <si>
     <t>${script:嬴政_ip} = master IP  # this IP must be in nodelist.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_l2l_user_pwd.ps1
+k_run_ip_port_w2l_user_pwd.ps1
+k_run_ip_port_w2w_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_l2l_user_pwd.ps1
+k_copyto_ip_port_w2l_user_pwd.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_l2l_user_pwd.ps1
+k_copyfrom_ip_port_w2l_user_pwd.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent command line</t>
+  </si>
+  <si>
+    <t>Does not rely on nodelist.csv. But you need to manually enter [ip] [port] [account] [password] and so on. Cannot run in batches. Used to get out of the kasini3000 for temporary use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function is equivalent to [krun_ip.ps1] for running scripts or command blocks on the node.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function is equivalent to【krun_copyto_ip.ps1】copy files &amp; folder from master to node.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function is equivalent to【krun_copyto_ip.ps1】copy files &amp; folder from node to master.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【file】
+【scriptblock】
+【all】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1577,6 +1733,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1586,7 +1757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1717,6 +1888,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4038,6 +4227,140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
+  <dimension ref="B3:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+    <col min="4" max="4" width="54.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
@@ -4163,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3ADB3-C8C0-4D73-A308-2B76D0CFA023}">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4360,13 +4683,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
     <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -4579,6 +4902,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC6A3C-0179-4F06-994C-40C41CCEE2E1}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="59.75" customWidth="1"/>
+    <col min="3" max="3" width="69.875" customWidth="1"/>
+    <col min="4" max="4" width="59.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
@@ -4831,7 +5233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA9E24-77E2-413D-8C7E-FFAE0922047D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
@@ -5017,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF84EE-A6D5-4D87-93BF-A5A95BE4D210}">
   <dimension ref="B3:D13"/>
   <sheetViews>
@@ -5125,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E65B66-6452-45A1-AB5A-A63AF65A2652}">
   <dimension ref="B2:D22"/>
   <sheetViews>
@@ -5315,138 +5717,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
-  <dimension ref="B3:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="54.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB4A46-28BD-4533-A79D-0D88B4AA6EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE54985E-B742-4ED4-A76F-BE42C3E10201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="1" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="270">
   <si>
     <t>k-console.ps1</t>
   </si>
@@ -1223,10 +1223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The following parameters are supported: 'win7', 'win8', 'win10', 'win2008r2', 'win2012r2', 'win2016', 'win2019', 'centos6', 'centos7', 'centos8', 'Debian 9', 'Debian 10', 'Ubuntu 1404', 'Ubuntu 1604', 'Ubuntu 1804','ubuntu2004', 'Alpine'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cdip.ps1 ip first</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1336,24 +1332,6 @@
   </si>
   <si>
     <t>${script:嬴政_ip} = master IP  # this IP must be in nodelist.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_run_ip_port_l2l_user_pwd.ps1
-k_run_ip_port_w2l_user_pwd.ps1
-k_run_ip_port_w2w_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyto_ip_port_l2l_user_pwd.ps1
-k_copyto_ip_port_w2l_user_pwd.ps1
-k_copyto_ip_port_w2w_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyfrom_ip_port_l2l_user_pwd.ps1
-k_copyfrom_ip_port_w2l_user_pwd.ps1
-k_copyfrom_ip_port_w2w_user_pwd.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1468,10 +1446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The function is equivalent to [krun_ip.ps1] for running scripts or command blocks on the node.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The function is equivalent to【krun_copyto_ip.ps1】copy files &amp; folder from master to node.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1493,12 +1467,320 @@
     <t>parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>psed.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool for replace keyword in text file.
+manual on docs/ps找算替_v3_readme.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
+k_run_ip_port_w2l_user.ps1
+k_run_ip_port_w2w_user_pwd.ps1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
+k_copyto_ip_port_w2l_user.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
+k_copyfrom_ip_port_w2l_user.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function is equivalent to [krun_ip.ps1] for running scripts or command blocks on the node.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑The above command requires that powershell is installed on the controlled machine and powershell is activated in the sshd file.
+↓The following command requires winscp module to be installed on the master computer, and the controlled computer requires bash.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">From the master linux to the linux node, if you want to automatically enter a password to log in, you need to manually write a ps1 script and call expect.
+Or use kasini3000, do ssh-keyfile to avoid secret.
+Or use multiple kasini3000 master. One is linux and the other is win. From the win master node, you can automatically enter the password. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The default is to copy together with subdirectories</t>
+  </si>
+  <si>
+    <t>Only single-line commands are supported, parameter passing is not supported. There are string-level return values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The effect is equivalent to [k_copyfrom_ip.ps1] for copying files from the controlled computer to the master computer. Two more functions:_x000D_
+1 Automatically enter the password from win to linux._x000D_
+2 Support sudo escalation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The function is equivalent to [k_copyto_ip.ps1] for copying files from the master computer to the controlled computer. Two more functions:_x000D_
+1 Automatically enter the password from win to linux._x000D_
+2 Support sudo escalation. </t>
+  </si>
+  <si>
+    <t>"The role is equivalent to [krun_ip.ps1] for executing commands from the master computer to the controlled computer. Two more functions:
+1 Automatically enter the password from win to linux.
+2 Support sudo escalation.
+3 does not support passing parameters, no return value. "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】
+【timeout】
+【showwindow】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【sudo】to root
+【timeout】
+【showwindow】
+【file】
+【ps1Command】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】
+【timeout】
+【showwindow】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【command】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following parameters are supported: 'win7', 'win8', 'win10', 'win2008r2', 'win2012r2', 'win2016', 'win2019', 'centos6', 'centos7', 'centos8', 'Debian 9', 'Debian 10', 'Ubuntu 1404', 'Ubuntu 1604', 'Ubuntu 1804','ubuntu2004','Amazon Linux 2','kylin v10' 'Alpine'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,6 +1830,13 @@
       <sz val="18"/>
       <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Semibold"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1757,7 +2046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,14 +2188,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4230,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
   <dimension ref="B3:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4255,7 +4556,7 @@
     <row r="4" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -4264,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>93</v>
@@ -4275,15 +4576,15 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
@@ -4293,7 +4594,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4302,42 +4603,46 @@
         <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4390,7 +4695,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4402,21 +4707,21 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -4445,10 +4750,10 @@
         <v>82</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4464,7 +4769,7 @@
         <v>91</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4486,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3ADB3-C8C0-4D73-A308-2B76D0CFA023}">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4582,7 +4887,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -4590,7 +4895,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -4903,10 +5208,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC6A3C-0179-4F06-994C-40C41CCEE2E1}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4921,58 +5226,140 @@
       <c r="B2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="B3" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>243</v>
-      </c>
+    </row>
+    <row r="7" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+    </row>
+    <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5348,7 +5735,7 @@
         <v>203</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5359,7 +5746,7 @@
         <v>204</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5556,7 +5943,7 @@
     <row r="3" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="24"/>
     </row>
@@ -5611,7 +5998,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="24"/>
     </row>
@@ -5620,7 +6007,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="24"/>
     </row>
@@ -5641,7 +6028,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>100</v>
@@ -5660,7 +6047,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE54985E-B742-4ED4-A76F-BE42C3E10201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C11FB3-B34A-418C-A21A-B3805670FE39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="1" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="1" activeTab="7" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="271">
   <si>
     <t>k-console.ps1</t>
   </si>
@@ -937,37 +937,6 @@
 -ipaddress '192.168.1.1' #node ip
 -begin_time  #yyyy-MM-dd HH:mm:ss format
 -end_time #yyyy-MM-dd HH:mm:ss format</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mast after cdip or cdg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-k-commit.ps1
--file  'd:\master\xxx.ps1'
-or
--scriptblock { d:\node\xxx.ps1}
--port 22 # only for all choose linux node
--allparameter ""'ab c',(get-date)""
--timeout [timespan]'01:00:00' #default one hour
--remark 'Comment'</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1772,7 +1741,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The following parameters are supported: 'win7', 'win8', 'win10', 'win2008r2', 'win2012r2', 'win2016', 'win2019', 'centos6', 'centos7', 'centos8', 'Debian 9', 'Debian 10', 'Ubuntu 1404', 'Ubuntu 1604', 'Ubuntu 1804','ubuntu2004','Amazon Linux 2','kylin v10' 'Alpine'</t>
+    <t>The following parameters are supported: 'win7', 'win8', 'win10', 'win2008r2', 'win2012r2', 'win2016', 'win2019', 'centos6', 'centos7', 'centos8', 'Debian 9', 'Debian 10', 'Ubuntu 1404', 'Ubuntu 1604', 'Ubuntu 1804','ubuntu2004','Amazon Linux 2','kylin v10','Alpine','统信UOS服务器版'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mast after cdip or cdg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+k-commit.ps1
+-file  'd:\master\xxx.ps1'
+or
+-scriptblock { d:\node\xxx.ps1}
+-port 22 # only for all choose linux node
+-allparameter ""'ab c',(get-date)""
+-timeout [timespan]'00:30:00' #default 30 minutes
+-remark 'Comment'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\master_script\ptelnet_v1.01.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4556,7 +4560,7 @@
     <row r="4" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -4565,7 +4569,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>93</v>
@@ -4576,15 +4580,15 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
@@ -4594,7 +4598,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4603,45 +4607,45 @@
         <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4695,7 +4699,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4707,21 +4711,21 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -4750,10 +4754,10 @@
         <v>82</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>233</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4769,7 +4773,7 @@
         <v>91</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4791,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3ADB3-C8C0-4D73-A308-2B76D0CFA023}">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4895,7 +4899,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5074,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B6D6-8A0D-447F-9E16-D0B486F8063D}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5133,7 +5137,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -5171,7 +5175,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -5230,127 +5234,127 @@
         <v>85</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>236</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>237</v>
       </c>
       <c r="D3" s="50"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B13" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -5384,47 +5388,47 @@
   <sheetData>
     <row r="3" spans="2:4" ht="91.5" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B5" s="42"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>50</v>
@@ -5435,7 +5439,7 @@
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>49</v>
@@ -5446,7 +5450,7 @@
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>51</v>
@@ -5457,13 +5461,13 @@
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5473,36 +5477,36 @@
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B13" s="42"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B14" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>53</v>
@@ -5513,7 +5517,7 @@
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>54</v>
@@ -5524,13 +5528,13 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5540,13 +5544,13 @@
     </row>
     <row r="19" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5556,24 +5560,24 @@
     </row>
     <row r="21" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B21" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B22" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5585,14 +5589,14 @@
       <c r="B24" s="41"/>
       <c r="C24" s="2"/>
       <c r="D24" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B25" s="42"/>
       <c r="C25" s="2"/>
       <c r="D25" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5648,10 +5652,10 @@
     </row>
     <row r="4" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5660,7 +5664,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5674,7 +5678,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5683,7 +5687,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -5692,7 +5696,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5701,7 +5705,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -5710,7 +5714,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>93</v>
@@ -5721,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>93</v>
@@ -5732,10 +5736,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5743,10 +5747,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,10 +5760,10 @@
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>93</v>
@@ -5770,7 +5774,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>93</v>
@@ -5810,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF84EE-A6D5-4D87-93BF-A5A95BE4D210}">
   <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5885,8 +5889,12 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5943,7 +5951,7 @@
     <row r="3" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="24"/>
     </row>
@@ -5998,7 +6006,7 @@
         <v>62</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="24"/>
     </row>
@@ -6007,7 +6015,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="24"/>
     </row>
@@ -6028,7 +6036,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>100</v>
@@ -6047,7 +6055,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C11FB3-B34A-418C-A21A-B3805670FE39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A78B7D-02B6-4B9A-AB12-16ED5E5E49DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="1" activeTab="7" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="1" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -1311,110 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The function is equivalent to【krun_copyto_ip.ps1】copy files &amp; folder from master to node.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1446,27 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
-k_run_ip_port_w2l_user.ps1
-k_run_ip_port_w2w_user_pwd.ps1
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
-k_copyto_ip_port_w2l_user.ps1
-k_copyto_ip_port_w2w_user_pwd.ps1
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
-k_copyfrom_ip_port_w2l_user.ps1
-k_copyfrom_ip_port_w2w_user_pwd.ps1
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The function is equivalent to [krun_ip.ps1] for running scripts or command blocks on the node.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1526,61 +1401,6 @@
 1 Automatically enter the password from win to linux.
 2 Support sudo escalation.
 3 does not support passing parameters, no return value. "</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】
-【sudo】
-【timeout】
-【showwindow】</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1593,151 +1413,6 @@
 【showwindow】
 【file】
 【ps1Command】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】
-【sudo】
-【timeout】
-【showwindow】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【command】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on node</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>folder &amp; files on master</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1779,12 +1454,364 @@
     <t>\master_script\ptelnet_v1.01.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
+k_run_ip_port_w2l_user.ps1
+k_run_ip_port_w2w_user_pwd.ps1
+parameter：【ssh_key_file_path】 for【2l】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_l2l_user.ps1
+k_copyto_ip_port_w2l_user.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1
+parameter：【ssh_key_file_path】 for【2l】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_l2l_user.ps1
+k_copyfrom_ip_port_w2l_user.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1
+parameter：【ssh_key_file_path】 for【2l】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【command】
+【ssh_key_file_path】putty format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【ssh_key_file_path】putty format</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">folder &amp; files on master
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【ssh_key_file_path】putty format</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】
+【timeout】
+【showwindow】
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】
+【timeout】
+【showwindow】
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>folder &amp; files on master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1841,6 +1868,12 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑 Semibold"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -4642,10 +4675,10 @@
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4899,7 +4932,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5137,7 +5170,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -5212,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC6A3C-0179-4F06-994C-40C41CCEE2E1}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5234,7 +5267,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -5248,122 +5281,127 @@
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C9" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="C13" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="C14" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5814,7 +5852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF84EE-A6D5-4D87-93BF-A5A95BE4D210}">
   <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5890,7 +5928,7 @@
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A78B7D-02B6-4B9A-AB12-16ED5E5E49DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AE2361-5E35-48F8-90BE-54E92E67BD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="1" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="2" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="295">
   <si>
     <t>k-console.ps1</t>
   </si>
@@ -1804,6 +1804,101 @@
 【Recurse】
 【Exclude】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwin右下角气球报警.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows desktop Bottom right corner Notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_rsync_winfromlinux.ps1</t>
+  </si>
+  <si>
+    <t>k_rsync_wintolinux.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$Path,
+[String]$Destination,
+[Alias("ipaddress")]
+[Switch]$Recurse,
+[Switch]$Delete,
+[Alias("port") = 22,
+[Switch]$debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$Path,
+[String]$Destination,
+[Alias("ipaddress")]
+[Switch]$Recurse,
+[Switch]$Delete,
+[Alias("port")]
+[Switch]$debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓master os = win，node os = linux + bash + rsync installed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_download_from_ftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>k_upload2ftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_ftpd2l_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_l2ftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_sftpd2l_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_l2sftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>http：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_upload2httpd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp download n files</t>
+  </si>
+  <si>
+    <t>ftp upload n files</t>
+  </si>
+  <si>
+    <t>ftp download, synchronize the entire directory</t>
+  </si>
+  <si>
+    <t>ftp upload, synchronize the entire directory</t>
+  </si>
+  <si>
+    <t>ftp: ↓The following command requires win on the master computer. Depends on the winscp module. If the master is linux, please use the lftp command.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftp download, synchronize the entire directory</t>
+  </si>
+  <si>
+    <t>sftp upload, synchronize the entire directory</t>
+  </si>
+  <si>
+    <t>sftp: ↓The following command requires win on the master computer. Depends on the winscp module.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http upload, 1 file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1910,7 +2005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2074,6 +2169,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2083,7 +2238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2231,6 +2386,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4014,7 +4190,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{49F70CF6-5CF8-469A-9B1A-D67E52AB52EA}" name="表10_6" displayName="表10_6" ref="B2:D22" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{49F70CF6-5CF8-469A-9B1A-D67E52AB52EA}" name="表10_6" displayName="表10_6" ref="B2:D23" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A8E655E8-2506-4354-8DFB-AF6A92FA36C1}" name="Command name" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{A8D0AE82-A14A-411C-9E33-82F843B05114}" name="Functional use" dataDxfId="15"/>
@@ -5023,10 +5199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5097,7 +5273,127 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
+    <row r="10" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="53"/>
+    </row>
+    <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="53"/>
+    </row>
+    <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="53"/>
+    </row>
+    <row r="24" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+    </row>
+    <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="53"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5247,7 +5543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC6A3C-0179-4F06-994C-40C41CCEE2E1}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5274,10 +5570,10 @@
       <c r="B3" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
@@ -5351,11 +5647,11 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="45" t="s">
@@ -5391,11 +5687,11 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5962,10 +6258,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E65B66-6452-45A1-AB5A-A63AF65A2652}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6081,33 +6377,33 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>272</v>
+      </c>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>102</v>
@@ -6116,7 +6412,7 @@
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>102</v>
@@ -6124,23 +6420,32 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
-        <v>46</v>
+      <c r="B20" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AE2361-5E35-48F8-90BE-54E92E67BD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48091EC-0903-411F-9591-EAE1D1C85F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="2" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="4" activeTab="10" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -1288,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. The high availability between the two master is only related to the scheduled task. If the scheduled task is not used, the high availability function is not required.It is only related to the database file [c:\ProgramData\kasini3000\cmdb\d当前库\user_crontab.sqlite3].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>master highly available scripts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1899,6 +1895,10 @@
   </si>
   <si>
     <t>http upload, 1 file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The high availability between the two master is only related to the scheduled task. If the scheduled task is not used, the high availability function is not required.It is only related to the database file [~\kasini3000\cmdb\user_crontab.sqlite3].</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4851,10 +4851,10 @@
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4882,8 +4882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4934,7 +4934,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -4963,10 +4963,10 @@
         <v>82</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>91</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5108,7 +5108,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
   <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -5275,100 +5275,100 @@
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
     </row>
     <row r="15" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D15" s="50"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="53"/>
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D17" s="50"/>
     </row>
     <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B18" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="53"/>
     </row>
     <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
     </row>
     <row r="21" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B21" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D21" s="50"/>
     </row>
     <row r="22" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="53"/>
     </row>
     <row r="24" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="26" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="53"/>
     </row>
@@ -5466,7 +5466,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -5563,49 +5563,49 @@
         <v>85</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>235</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>236</v>
       </c>
       <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5615,80 +5615,80 @@
     </row>
     <row r="8" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B9" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>256</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
@@ -6378,10 +6378,10 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>272</v>
       </c>
       <c r="D15" s="24"/>
     </row>

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48091EC-0903-411F-9591-EAE1D1C85F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D40E0-9444-4918-A267-8DFB4F1DA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" firstSheet="4" activeTab="10" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="300">
   <si>
     <t>k-console.ps1</t>
   </si>
@@ -1899,6 +1899,28 @@
   </si>
   <si>
     <t>3. The high availability between the two master is only related to the scheduled task. If the scheduled task is not used, the high availability function is not required.It is only related to the database file [~\kasini3000\cmdb\user_crontab.sqlite3].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkj_s所有linux被控机改密码_验证周期_改密码_验证_对调密码_写入时间戳.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change the password of all linux nodes
+Read the old password field in the nodelist.csv file,
+After changing the password, exchange the password field and the old password field
+Write the nodelist.csv file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\zkj_install_powershell_offline_win2linux.ps1</t>
+  </si>
+  <si>
+    <t>from win master to linux node,offline installation kasini3000 linux agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need winscpmodule，default folder：c:\ProgramData\kasini3000\master_script\PowerShell-6.2.7-win-x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2238,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2399,6 +2421,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4510,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4657,10 +4682,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="37" t="s">
@@ -4882,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5201,19 +5232,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
   <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="73" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="68.75" customWidth="1"/>
     <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:4" ht="91.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="54" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -5274,11 +5305,11 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
@@ -5299,13 +5330,13 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
         <v>277</v>
       </c>
@@ -5314,7 +5345,7 @@
       </c>
       <c r="D15" s="50"/>
     </row>
-    <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B16" s="51" t="s">
         <v>278</v>
       </c>
@@ -5323,7 +5354,7 @@
       </c>
       <c r="D16" s="53"/>
     </row>
-    <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B17" s="41" t="s">
         <v>279</v>
       </c>
@@ -5332,7 +5363,7 @@
       </c>
       <c r="D17" s="50"/>
     </row>
-    <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B18" s="51" t="s">
         <v>280</v>
       </c>
@@ -5342,13 +5373,13 @@
       <c r="D18" s="53"/>
     </row>
     <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="41" t="s">
         <v>281</v>
       </c>
@@ -5357,7 +5388,7 @@
       </c>
       <c r="D21" s="50"/>
     </row>
-    <row r="22" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
         <v>282</v>
       </c>
@@ -5367,18 +5398,18 @@
       <c r="D22" s="53"/>
     </row>
     <row r="24" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B25" s="41"/>
       <c r="C25" s="49"/>
       <c r="D25" s="50"/>
     </row>
-    <row r="26" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="s">
         <v>284</v>
       </c>
@@ -5570,10 +5601,10 @@
       <c r="B3" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
@@ -5647,11 +5678,11 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="45" t="s">
@@ -5687,11 +5718,11 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5962,8 +5993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA9E24-77E2-413D-8C7E-FFAE0922047D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6002,9 +6033,13 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="2:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D40E0-9444-4918-A267-8DFB4F1DA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088F475-DBA2-48C9-ABD2-364821F4B052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -1400,18 +1400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【ipaddress】
-【port】
-【user】
-【pwd】
-【sudo】to root
-【timeout】
-【showwindow】
-【file】
-【ps1Command】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The following parameters are supported: 'win7', 'win8', 'win10', 'win2008r2', 'win2012r2', 'win2016', 'win2019', 'centos6', 'centos7', 'centos8', 'Debian 9', 'Debian 10', 'Ubuntu 1404', 'Ubuntu 1604', 'Ubuntu 1804','ubuntu2004','Amazon Linux 2','kylin v10','Alpine','统信UOS服务器版'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1921,6 +1909,18 @@
   </si>
   <si>
     <t>need winscpmodule，default folder：c:\ProgramData\kasini3000\master_script\PowerShell-6.2.7-win-x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】
+【port】
+【user】
+【pwd】
+【sudo】to root
+【timeout】
+【showwindow】
+【file】
+【scriptblock】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4535,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4684,13 +4684,13 @@
     </row>
     <row r="18" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -5139,7 +5139,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5306,100 +5306,100 @@
     </row>
     <row r="10" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="50"/>
     </row>
     <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B16" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" s="53"/>
     </row>
     <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B17" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="50"/>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B18" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="53"/>
     </row>
     <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" s="50"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D22" s="53"/>
     </row>
     <row r="24" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="53"/>
     </row>
@@ -5497,7 +5497,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -5574,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC6A3C-0179-4F06-994C-40C41CCEE2E1}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>242</v>
@@ -5619,24 +5619,24 @@
     </row>
     <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>236</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>237</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5652,7 +5652,7 @@
         <v>253</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>254</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
@@ -5674,7 +5674,7 @@
         <v>255</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5692,7 +5692,7 @@
         <v>252</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>251</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
@@ -5714,7 +5714,7 @@
         <v>251</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="138" customHeight="1" x14ac:dyDescent="0.2">
@@ -5740,7 +5740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="6" spans="2:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="D15" s="24"/>
     </row>

--- a/docs/kasini3000_manual.xlsx
+++ b/docs/kasini3000_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088F475-DBA2-48C9-ABD2-364821F4B052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C949BC-3CB7-4BF3-9B59-B75FBC12FC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" firstSheet="5" activeTab="11" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and upgrading" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="windows gui out" sheetId="9" r:id="rId9"/>
     <sheet name="Script on node" sheetId="7" r:id="rId10"/>
     <sheet name="Master high availability" sheetId="12" r:id="rId11"/>
+    <sheet name="Compressed file" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="325">
   <si>
     <t>k-console.ps1</t>
   </si>
@@ -1923,12 +1924,99 @@
 【scriptblock】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>from master install kasini3000 to linux node（offline install）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\zkj_install_powershell_offline_win2linux_pwd_winscp.ps1 -ip nodeip -port nodeport -user root -pwd xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\zkj_install_powershell_offline_win2linux_keyfile.ps1 -ip nodeip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\node_script\7z\</t>
+  </si>
+  <si>
+    <t>l7za2zip.ps1</t>
+  </si>
+  <si>
+    <t>l7zu2zip.ps1</t>
+  </si>
+  <si>
+    <t>l7za27z.ps1</t>
+  </si>
+  <si>
+    <t>l7zu27z.ps1</t>
+  </si>
+  <si>
+    <t>l7zx.ps1</t>
+  </si>
+  <si>
+    <t>w7za2zip.ps1</t>
+  </si>
+  <si>
+    <t>w7za27z.ps1</t>
+  </si>
+  <si>
+    <t>w7zx.ps1</t>
+  </si>
+  <si>
+    <t>Notice:
+C: \ ProgramData \ Kasini3000 \ Node_Script \
+This directory only saves common tools. 
+If the compressed decompression tool is considered is not commonly used. 
+Then, the 7Z this directory will be moved here:
+C: \ ProgramData \ Kasini3000 \ LIB \ 7Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compression under Linux into zip</t>
+  </si>
+  <si>
+    <t>Update zip under Linux</t>
+  </si>
+  <si>
+    <t>LINUX is compressed into 7Z</t>
+  </si>
+  <si>
+    <t>Updated 7Z under Linux</t>
+  </si>
+  <si>
+    <t>Win is compressed into ZIP</t>
+  </si>
+  <si>
+    <t>Update ZIP under Win</t>
+  </si>
+  <si>
+    <t>Win is compressed into 7Z</t>
+  </si>
+  <si>
+    <t>Updated 7Z under Win</t>
+  </si>
+  <si>
+    <t>Unzip under Win</t>
+  </si>
+  <si>
+    <t>w7zu27z.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unzip under LINUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w7zu2zip.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1994,6 +2082,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2027,7 +2123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2251,6 +2347,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2260,7 +2391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2446,6 +2577,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4535,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4718,20 +4876,26 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
@@ -4775,8 +4939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
   <dimension ref="B3:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5028,6 +5192,172 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08A94F-D520-4C20-901E-6931BE0D2ED4}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="70"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="70"/>
+    </row>
+    <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="65"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="70"/>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="70"/>
+    </row>
+    <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="70"/>
+    </row>
+    <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="70"/>
+    </row>
+    <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="70"/>
+    </row>
+    <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="70"/>
+    </row>
+    <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="70"/>
+    </row>
+    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="70"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="68"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="70"/>
+    </row>
+    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="70"/>
+    </row>
+    <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="67"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="70"/>
+    </row>
+    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="70"/>
+    </row>
+    <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5740,7 +6070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
